--- a/バッチ開発補助/ジョブ実行シェルスクリプト自動生成設定.xlsx
+++ b/バッチ開発補助/ジョブ実行シェルスクリプト自動生成設定.xlsx
@@ -23,12 +23,6 @@
     <sheet name="ファイル送信" sheetId="15" r:id="rId14"/>
     <sheet name="ファイル受信" sheetId="16" r:id="rId15"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId16"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="カテゴライズ">'[1]1'!$AH$10:$AH$14</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -9180,57 +9174,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1"/>
-      <sheetName val="SG増幅(Java単バッチ)"/>
-      <sheetName val="template5"/>
-      <sheetName val="template4"/>
-      <sheetName val="template3"/>
-      <sheetName val="template2"/>
-      <sheetName val="template"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="AH10" t="str">
-            <v>batch</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AH11" t="str">
-            <v>mq</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AH12" t="str">
-            <v>physics</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AH13" t="str">
-            <v>bsg</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AH14" t="str">
-            <v>msg</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>

--- a/バッチ開発補助/ジョブ実行シェルスクリプト自動生成設定.xlsx
+++ b/バッチ開発補助/ジョブ実行シェルスクリプト自動生成設定.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github-trans\nablarch-development-standards\nablarch-development-standards-tools\バッチ開発補助\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37651CC-7D4A-4BB4-89F1-E1CEBE19EA00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27900" windowHeight="12675"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記述方法・サンプル" sheetId="7" r:id="rId1"/>
@@ -1230,8 +1236,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2100,6 +2106,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2121,7 +2130,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7185" name="Rectangle 17"/>
+        <xdr:cNvPr id="7185" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000111C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2183,7 +2198,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7186" name="Rectangle 18"/>
+        <xdr:cNvPr id="7186" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000121C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2245,7 +2266,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7958" name="AutoShape 19"/>
+        <xdr:cNvPr id="7958" name="AutoShape 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000161F0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="7186" idx="0"/>
@@ -2294,7 +2321,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7959" name="AutoShape 20"/>
+        <xdr:cNvPr id="7959" name="AutoShape 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000171F0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="7185" idx="0"/>
@@ -2343,7 +2376,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7192" name="Rectangle 24"/>
+        <xdr:cNvPr id="7192" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000181C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2408,7 +2447,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7961" name="AutoShape 25"/>
+        <xdr:cNvPr id="7961" name="AutoShape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000191F0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="7192" idx="0"/>
@@ -2457,7 +2502,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7194" name="Rectangle 26"/>
+        <xdr:cNvPr id="7194" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A1C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2522,7 +2573,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7963" name="AutoShape 27"/>
+        <xdr:cNvPr id="7963" name="AutoShape 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B1F0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="7194" idx="0"/>
@@ -2576,7 +2633,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2767,7 +2830,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2855,7 +2924,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3172,7 +3247,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3260,7 +3341,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3559,7 +3646,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3647,7 +3740,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4057,7 +4156,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4145,7 +4250,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4494,7 +4605,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4582,7 +4699,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4891,7 +5014,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4979,7 +5108,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1038" name="Rectangle 14"/>
+        <xdr:cNvPr id="1038" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5218,88 +5353,192 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・business-date-default-segment:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [NAF共通コンポーネント] -&gt; [日付の管理機能]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [業務日付機能] -&gt; [設定ファイル] -&gt; [nablarch.core.date.BasicBusinessDateProviderの設定]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [defaultSegment]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>    ・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>business-date-default-segment:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>          -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>が提供するライブラリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>日付管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>業務日付管理機能を使うための設定を行う</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -5315,87 +5554,262 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・threadCount:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [並行実行スレッド数]</a:t>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    ・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>threadCount:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の提供する標準ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>スタンドアローン型アプリケーション共通ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>マルチスレッド実行制御ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>スレッド数を指定する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5421,95 +5835,257 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・commitInterval:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] -&gt; [トランザクションループ制御ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [コミット間隔回数]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>commitInterval:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の提供する標準ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>バッチアプリケーション専用ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>トランザクションループ制御ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>コミット間隔を指定する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -5525,102 +6101,294 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・maxCount:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [汎用のハンドラ] -&gt; [データリードハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [データ読み込み件数上限]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>maxCount:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の提供する標準ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>スタンドアローン型アプリケーション共通ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>データリードハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>最大処理件数の設定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -5698,7 +6466,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2061" name="Rectangle 13"/>
+        <xdr:cNvPr id="2061" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5937,86 +6711,208 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・business-date-default-segment:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [NAF共通コンポーネント] -&gt; [日付の管理機能]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [業務日付機能] -&gt; [設定ファイル] -&gt; [nablarch.core.date.BasicBusinessDateProviderの設定]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [defaultSegment]</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>business-date-default-segment:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>          -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>が提供するライブラリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>日付管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>業務日付管理機能を使うための設定を行う</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6042,95 +6938,257 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・threadCount:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [並行実行スレッド数]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>threadCount:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の提供する標準ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>スタンドアローン型アプリケーション共通ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>マルチスレッド実行制御ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>スレッド数を指定する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -6146,87 +7204,272 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・dataWatchInterval:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] [プロセス常駐化ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [データ監視間隔]</a:t>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>dataWatchInterval:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の提供する標準ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>バッチアプリケーション専用ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>プロセス常駐化ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>データの監視間隔を設定する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6319,7 +7562,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3081" name="Rectangle 9"/>
+        <xdr:cNvPr id="3081" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000090C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6482,86 +7731,256 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・threadCount:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [並行実行スレッド数]</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>threadCount:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の提供する標準ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>スタンドアローン型アプリケーション共通ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>マルチスレッド実行制御ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>スレッド数を指定する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6587,68 +8006,256 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・defaultTimeToLive:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [NAF基盤ライブラリ] -&gt; [システム間メッセージング機能]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [JMS メッセージングプロバイダ] -&gt; [設定項目] -&gt; [デフォルト送信電文有効期間(msec)]</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>defaultTimeToLive:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の提供する標準ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージング専用ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージングコンテキスト管理ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [MQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の接続先の設定を行う</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [MessagingProvider] -&gt; [JmsMessagingProvider]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6674,77 +8281,295 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・receiveQueueName:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework 解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [リファレンス] -&gt; [データリーダリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [受信電文リーダ] -&gt; [設定項目一覧] -&gt; [受信キュー論理名]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>receiveQueueName:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージング編</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>によるメッセージング</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アーキテクチャ概要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージングで使用するデータリーダ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>                -&gt; [MessageReader (MQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>から電文の読み込み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>)]</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -6760,78 +8585,311 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・readTimeout:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework 解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [リファレンス] -&gt; [データリーダリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [受信電文リーダ] -&gt; [設定項目一覧] -&gt; [受信待機タイムアウト時間(ミリ秒)]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>readTimeout:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージング編</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>によるメッセージング</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アーキテクチャ概要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージングで使用するデータリーダ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>                -&gt; [MessageReader (MQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>から電文の読み込み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>)]</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -6859,7 +8917,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3083" name="Rectangle 11"/>
+        <xdr:cNvPr id="3083" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B0C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6947,7 +9011,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4107" name="Rectangle 11"/>
+        <xdr:cNvPr id="4107" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7103,69 +9173,330 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・sendQueueName:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [業務アクションハンドラ] -&gt; [応答不要電文送信処理用アクションハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [送信宛先キュー論理名]</a:t>
-          </a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>sendQueueName:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>が提供するライブラリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>システム間メッセージング</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージング</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>同期応答でメッセージを送信する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>同期応答メッセージ送信</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>)]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>                -&gt; [MessageSender</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の設定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]-&gt;[MessageSenderSettings ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -7255,7 +9586,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4109" name="Rectangle 13"/>
+        <xdr:cNvPr id="4109" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7343,7 +9680,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5129" name="Rectangle 9"/>
+        <xdr:cNvPr id="5129" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7506,86 +9849,256 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・threadCount:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [並行実行スレッド数]</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>threadCount:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の提供する標準ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>スタンドアローン型アプリケーション共通ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>マルチスレッド実行制御ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>スレッド数を指定する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7611,68 +10124,256 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・defaultTimeToLive:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [NAF基盤ライブラリ] -&gt; [システム間メッセージング機能]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [JMS メッセージングプロバイダ] -&gt; [設定項目] -&gt; [デフォルト送信電文有効期間(msec)]</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>defaultTimeToLive:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の提供する標準ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージング専用ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージングコンテキスト管理ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [MQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の接続先の設定を行う</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7698,68 +10399,294 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・receiveQueueName:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework 解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [リファレンス] -&gt; [データリーダリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [受信電文リーダ] -&gt; [設定項目一覧] -&gt; [受信キュー論理名]</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>receiveQueueName:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージング編</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>によるメッセージング</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アーキテクチャ概要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージングで使用するデータリーダ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>                -&gt; [MessageReader (MQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>から電文の読み込み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>)]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7785,68 +10712,256 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・poisonQueueName:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [NAF基盤ライブラリ] -&gt; [システム間メッセージング機能]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [JMS メッセージングプロバイダ] -&gt; [設定項目] -&gt; [デフォルト退避キュー名]</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>poisonQueueName:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [Nablarch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の提供する標準ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージング専用ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージングコンテキスト管理ハンドラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [MQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>の接続先の設定を行う</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [MessagingProvider] -&gt; [JmsMessagingProvider]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7872,77 +10987,295 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・readTimeout:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework 解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [リファレンス] -&gt; [データリーダリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [受信電文リーダ] -&gt; [設定項目一覧] -&gt; [受信待機タイムアウト時間(ミリ秒)]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>readTimeou:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>下記を参照</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>[Nablarch Application Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>解説書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>-&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アプリケーションフレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージング編</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>            -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>によるメッセージング</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>] -&gt; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>アーキテクチャ概要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>              -&gt; [MOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>メッセージングで使用するデータリーダ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>                -&gt; [MessageReader (MQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>から電文の読み込み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>)]</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -7970,7 +11303,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5131" name="Rectangle 11"/>
+        <xdr:cNvPr id="5131" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8058,7 +11397,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6153" name="Rectangle 9"/>
+        <xdr:cNvPr id="6153" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009180000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8189,7 +11534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6155" name="Rectangle 11"/>
+        <xdr:cNvPr id="6155" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B180000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8277,7 +11628,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8756,7 +12113,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8844,7 +12207,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9103,7 +12472,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9175,7 +12550,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9217,7 +12592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9250,9 +12625,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9285,6 +12677,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9460,13 +12869,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:P84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
@@ -9483,21 +12892,21 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:16" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="11.25" thickBot="1">
+    <row r="4" spans="2:16" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="12" thickTop="1" thickBot="1">
+    <row r="5" spans="2:16" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -9526,7 +12935,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="39"/>
     </row>
-    <row r="6" spans="2:16" ht="12" thickTop="1" thickBot="1">
+    <row r="6" spans="2:16" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -9561,7 +12970,7 @@
       <c r="O6" s="50"/>
       <c r="P6" s="51"/>
     </row>
-    <row r="7" spans="2:16" ht="32.25" thickTop="1">
+    <row r="7" spans="2:16" ht="32.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>56</v>
       </c>
@@ -9606,7 +13015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="11.25" thickBot="1">
+    <row r="8" spans="2:16" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
@@ -9637,12 +13046,12 @@
       <c r="O8" s="31"/>
       <c r="P8" s="32"/>
     </row>
-    <row r="9" spans="2:16" s="1" customFormat="1" ht="11.25" thickTop="1">
+    <row r="9" spans="2:16" s="1" customFormat="1" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="69"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -9654,7 +13063,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="70"/>
     </row>
-    <row r="21" spans="2:11" ht="17.25">
+    <row r="21" spans="2:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B21" s="71"/>
       <c r="C21" s="72" t="s">
         <v>82</v>
@@ -9668,7 +13077,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="73"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="71"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -9680,7 +13089,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="73"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="71"/>
       <c r="C23" s="74" t="s">
         <v>83</v>
@@ -9694,7 +13103,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="73"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="71"/>
       <c r="C24" s="74" t="s">
         <v>84</v>
@@ -9708,7 +13117,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="73"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="71"/>
       <c r="C25" s="74" t="s">
         <v>85</v>
@@ -9722,7 +13131,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="73"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="71"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -9734,7 +13143,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="73"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="71"/>
       <c r="C27" s="75" t="s">
         <v>86</v>
@@ -9748,7 +13157,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="73"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="71"/>
       <c r="C28" s="1" t="s">
         <v>87</v>
@@ -9762,7 +13171,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="73"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="71"/>
       <c r="C29" s="1" t="s">
         <v>88</v>
@@ -9776,7 +13185,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="73"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="71"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -9788,7 +13197,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="73"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="71"/>
       <c r="C31" s="75" t="s">
         <v>89</v>
@@ -9802,7 +13211,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="73"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="71"/>
       <c r="C32" s="1" t="s">
         <v>90</v>
@@ -9816,7 +13225,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="73"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="71"/>
       <c r="C33" s="1" t="s">
         <v>91</v>
@@ -9830,7 +13239,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="73"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="71"/>
       <c r="C34" s="1" t="s">
         <v>92</v>
@@ -9844,7 +13253,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="73"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="71"/>
       <c r="C35" s="1" t="s">
         <v>93</v>
@@ -9858,7 +13267,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="73"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="71"/>
       <c r="C36" s="1" t="s">
         <v>94</v>
@@ -9872,7 +13281,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="73"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B37" s="71"/>
       <c r="C37" s="1" t="s">
         <v>95</v>
@@ -9886,7 +13295,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="73"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" s="71"/>
       <c r="C38" s="1" t="s">
         <v>96</v>
@@ -9900,7 +13309,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="73"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="71"/>
       <c r="C39" s="1" t="s">
         <v>97</v>
@@ -9914,7 +13323,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="71"/>
       <c r="C40" s="1" t="s">
         <v>131</v>
@@ -9928,7 +13337,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" s="71"/>
       <c r="C41" s="1" t="s">
         <v>98</v>
@@ -9942,7 +13351,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" s="71"/>
       <c r="C42" s="1" t="s">
         <v>99</v>
@@ -9956,7 +13365,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="73"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" s="71"/>
       <c r="C43" s="1" t="s">
         <v>100</v>
@@ -9970,7 +13379,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="73"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" s="71"/>
       <c r="C44" s="1" t="s">
         <v>101</v>
@@ -9984,7 +13393,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="71"/>
       <c r="C45" s="1" t="s">
         <v>102</v>
@@ -9998,7 +13407,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="73"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" s="71"/>
       <c r="C46" s="1" t="s">
         <v>103</v>
@@ -10012,7 +13421,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="73"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" s="71"/>
       <c r="C47" s="1" t="s">
         <v>104</v>
@@ -10026,7 +13435,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="73"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" s="71"/>
       <c r="C48" s="1" t="s">
         <v>105</v>
@@ -10040,7 +13449,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="73"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="71"/>
       <c r="C49" s="1" t="s">
         <v>106</v>
@@ -10054,7 +13463,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="73"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="71"/>
       <c r="C50" s="1" t="s">
         <v>107</v>
@@ -10068,7 +13477,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="73"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="71"/>
       <c r="C51" s="1" t="s">
         <v>108</v>
@@ -10082,7 +13491,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="73"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="71"/>
       <c r="C52" s="1" t="s">
         <v>109</v>
@@ -10096,7 +13505,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="73"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="71"/>
       <c r="C53" s="1" t="s">
         <v>110</v>
@@ -10110,7 +13519,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="73"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="71"/>
       <c r="C54" s="1" t="s">
         <v>111</v>
@@ -10124,7 +13533,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="73"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="71"/>
       <c r="C55" s="1" t="s">
         <v>112</v>
@@ -10138,7 +13547,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="73"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="71"/>
       <c r="C56" s="1" t="s">
         <v>113</v>
@@ -10152,7 +13561,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="73"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="71"/>
       <c r="C57" s="1" t="s">
         <v>114</v>
@@ -10166,7 +13575,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="73"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" s="71"/>
       <c r="C58" s="1" t="s">
         <v>115</v>
@@ -10180,7 +13589,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="73"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" s="71"/>
       <c r="C59" s="1" t="s">
         <v>116</v>
@@ -10194,7 +13603,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="73"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" s="71"/>
       <c r="C60" s="1" t="s">
         <v>117</v>
@@ -10208,7 +13617,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="73"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B61" s="71"/>
       <c r="C61" s="1" t="s">
         <v>118</v>
@@ -10222,7 +13631,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="73"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B62" s="71"/>
       <c r="C62" s="1" t="s">
         <v>119</v>
@@ -10236,7 +13645,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="73"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B63" s="71"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -10248,7 +13657,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="73"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" s="71"/>
       <c r="C64" s="75" t="s">
         <v>120</v>
@@ -10262,7 +13671,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="73"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65" s="71"/>
       <c r="C65" s="1" t="s">
         <v>121</v>
@@ -10276,7 +13685,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="73"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B66" s="71"/>
       <c r="C66" s="1" t="s">
         <v>122</v>
@@ -10290,7 +13699,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="73"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B67" s="71"/>
       <c r="C67" s="1" t="s">
         <v>123</v>
@@ -10304,7 +13713,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="73"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B68" s="71"/>
       <c r="C68" s="1" t="s">
         <v>124</v>
@@ -10318,7 +13727,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="73"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B69" s="71"/>
       <c r="C69" s="1" t="s">
         <v>125</v>
@@ -10332,7 +13741,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="73"/>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B70" s="71"/>
       <c r="C70" s="1" t="s">
         <v>126</v>
@@ -10346,7 +13755,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="73"/>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B71" s="71"/>
       <c r="C71" s="1" t="s">
         <v>127</v>
@@ -10360,7 +13769,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="73"/>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B72" s="71"/>
       <c r="C72" s="1" t="s">
         <v>128</v>
@@ -10374,7 +13783,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="73"/>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B73" s="71"/>
       <c r="C73" s="1" t="s">
         <v>129</v>
@@ -10388,7 +13797,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="73"/>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74" s="71"/>
       <c r="C74" s="1" t="s">
         <v>130</v>
@@ -10402,7 +13811,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="73"/>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B75" s="71"/>
       <c r="C75" s="1" t="s">
         <v>145</v>
@@ -10416,7 +13825,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="73"/>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B76" s="71"/>
       <c r="C76" s="1" t="s">
         <v>146</v>
@@ -10430,7 +13839,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="73"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B77" s="71"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -10442,7 +13851,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="73"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B78" s="71"/>
       <c r="C78" s="1" t="s">
         <v>132</v>
@@ -10456,7 +13865,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="73"/>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B79" s="71"/>
       <c r="C79" s="1"/>
       <c r="D79" s="66" t="s">
@@ -10478,7 +13887,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="73"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B80" s="71"/>
       <c r="C80" s="67" t="s">
         <v>133</v>
@@ -10502,7 +13911,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="73"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B81" s="71"/>
       <c r="C81" s="67" t="s">
         <v>134</v>
@@ -10526,7 +13935,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="73"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B82" s="71"/>
       <c r="C82" s="67" t="s">
         <v>135</v>
@@ -10550,7 +13959,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="73"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B83" s="71"/>
       <c r="C83" s="67" t="s">
         <v>140</v>
@@ -10574,7 +13983,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="73"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B84" s="76"/>
       <c r="C84" s="77"/>
       <c r="D84" s="77"/>
@@ -10596,13 +14005,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -10613,12 +14022,12 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -10630,7 +14039,7 @@
       </c>
       <c r="E5" s="60"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
@@ -10640,7 +14049,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>212</v>
       </c>
@@ -10654,13 +14063,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1">
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -10678,13 +14087,13 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -10695,12 +14104,12 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -10713,7 +14122,7 @@
       <c r="E5" s="53"/>
       <c r="F5" s="60"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
@@ -10726,7 +14135,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>213</v>
       </c>
@@ -10743,14 +14152,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1">
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -10768,13 +14177,13 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -10787,12 +14196,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -10806,7 +14215,7 @@
       <c r="F5" s="53"/>
       <c r="G5" s="60"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
@@ -10822,7 +14231,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>215</v>
       </c>
@@ -10842,7 +14251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
@@ -10850,7 +14259,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -10870,13 +14279,13 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -10889,12 +14298,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -10910,7 +14319,7 @@
       <c r="H5" s="53"/>
       <c r="I5" s="60"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
@@ -10932,7 +14341,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>217</v>
       </c>
@@ -10958,7 +14367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
@@ -10968,7 +14377,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -10988,13 +14397,13 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -11007,12 +14416,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -11028,7 +14437,7 @@
       <c r="H5" s="53"/>
       <c r="I5" s="60"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
@@ -11050,7 +14459,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>219</v>
       </c>
@@ -11076,7 +14485,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
@@ -11086,7 +14495,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11106,13 +14515,13 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -11125,12 +14534,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -11146,7 +14555,7 @@
       <c r="H5" s="53"/>
       <c r="I5" s="60"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
@@ -11168,7 +14577,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>222</v>
       </c>
@@ -11194,7 +14603,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
@@ -11204,7 +14613,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11224,13 +14633,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:M9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -11244,16 +14653,16 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:13" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="25"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11279,7 +14688,7 @@
       </c>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11307,7 +14716,7 @@
       <c r="L6" s="44"/>
       <c r="M6" s="55"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>55</v>
       </c>
@@ -11345,7 +14754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -11359,7 +14768,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11381,13 +14790,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -11399,16 +14808,16 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:12" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11433,7 +14842,7 @@
       </c>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11458,7 +14867,7 @@
       <c r="K6" s="44"/>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>57</v>
       </c>
@@ -11479,7 +14888,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -11492,7 +14901,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1">
+    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11513,13 +14922,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:M9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -11534,16 +14943,16 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:13" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11569,7 +14978,7 @@
       </c>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11597,7 +15006,7 @@
       <c r="L6" s="44"/>
       <c r="M6" s="55"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
@@ -11619,7 +15028,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -11633,7 +15042,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11655,13 +15064,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -11675,15 +15084,15 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:11" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11707,7 +15116,7 @@
       </c>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11729,7 +15138,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
@@ -11751,7 +15160,7 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -11763,7 +15172,7 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="2:11" s="1" customFormat="1">
+    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11783,13 +15192,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -11802,16 +15211,16 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:14" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11838,7 +15247,7 @@
       </c>
       <c r="N5" s="40"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11869,7 +15278,7 @@
       <c r="M6" s="44"/>
       <c r="N6" s="55"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
@@ -11892,7 +15301,7 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -11907,7 +15316,7 @@
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="2:14" s="1" customFormat="1">
+    <row r="9" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11933,13 +15342,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -11951,12 +15360,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11979,7 +15388,7 @@
       </c>
       <c r="J5" s="40"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11996,7 +15405,7 @@
       <c r="I6" s="44"/>
       <c r="J6" s="55"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
@@ -12015,7 +15424,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -12026,7 +15435,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -12048,13 +15457,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -12067,12 +15476,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -12088,7 +15497,7 @@
       <c r="H5" s="53"/>
       <c r="I5" s="60"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
@@ -12110,7 +15519,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>208</v>
       </c>
@@ -12136,7 +15545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
@@ -12146,7 +15555,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -12166,13 +15575,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -12183,12 +15592,12 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -12201,7 +15610,7 @@
       <c r="E5" s="53"/>
       <c r="F5" s="60"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
@@ -12214,7 +15623,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>209</v>
       </c>
@@ -12231,14 +15640,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1">
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>

--- a/バッチ開発補助/ジョブ実行シェルスクリプト自動生成設定.xlsx
+++ b/バッチ開発補助/ジョブ実行シェルスクリプト自動生成設定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github-trans\nablarch-development-standards\nablarch-development-standards-tools\バッチ開発補助\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seko\git\github\nablarch-development-standards\nablarch-development-standards-tools\バッチ開発補助\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37651CC-7D4A-4BB4-89F1-E1CEBE19EA00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9473F48-1CAA-4AD2-9DB2-E35F8C89DBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記述方法・サンプル" sheetId="7" r:id="rId1"/>
@@ -514,24 +514,6 @@
     <t xml:space="preserve">        次のオプションは全ての処理方式で指定する必要がある。</t>
   </si>
   <si>
-    <t xml:space="preserve">        ・ requestPath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ・ userId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        これらのオプションの説明は、下記参照のこと。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        [プログラミング・単体テストガイド]</t>
-  </si>
-  <si>
-    <t>　　　　  -&gt; [業務アプリケーションの実装方法 (バッチ処理編)] -&gt; [6.3. バッチ共通のアプリケーション構造]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            -&gt; [処理の流れ] -&gt; [コマンドライン引数]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  ・オプション（アプリケーション用）</t>
   </si>
   <si>
@@ -1231,6 +1213,31 @@
       <t>サキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ・ requestPath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ・ userId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          実行するアクションとリクエストIDを指定する。書式は「実行するアクションのクラス名/リクエストID」。</t>
+    <rPh sb="33" eb="35">
+      <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ユーザIDを設定する。 この値はセッションコンテキスト変数に user.id という名前で格納される。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ・readTimeout:受信キューが空の場合に待機する最大時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        0以下の値を設定した場合はタイムアウトせずに 新規電文を受信するまで待機し続ける</t>
   </si>
 </sst>
 </file>
@@ -5103,8 +5110,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -5122,7 +5129,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="495300" y="1514475"/>
-          <a:ext cx="7200900" cy="6553200"/>
+          <a:ext cx="7200900" cy="3762375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5373,187 +5380,8 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>が提供するライブラリ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>日付管理</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>業務日付管理機能を使うための設定を行う</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>業務日付区分</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -5569,538 +5397,6 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>threadCount:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の提供する標準ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>スタンドアローン型アプリケーション共通ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>マルチスレッド実行制御ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>スレッド数を指定する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>commitInterval:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の提供する標準ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>バッチアプリケーション専用ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>トランザクションループ制御ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>コミット間隔を指定する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -6117,44 +5413,34 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>    ・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>threadCount:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>maxCount:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>下記を参照</a:t>
+            <a:t>スレッド数</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6164,216 +5450,217 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の提供する標準ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>スタンドアローン型アプリケーション共通ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>データリードハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>最大処理件数の設定</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>commitInterval:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>コミット間隔とする処理件数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>maxCount:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最大の処理件数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>大量データを処理するバッチ処理を数日に分けて処理させる場合などに指定する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設定しない場合は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を指定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -6748,171 +6035,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>が提供するライブラリ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>日付管理</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>業務日付管理機能を使うための設定を行う</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
+            <a:t>業務日付区分</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6975,235 +6098,8 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の提供する標準ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>スタンドアローン型アプリケーション共通ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>マルチスレッド実行制御ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>スレッド数を指定する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>スレッド数</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -7219,13 +6115,28 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>    </a:t>
           </a:r>
@@ -7234,8 +6145,8 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>・</a:t>
           </a:r>
@@ -7244,21 +6155,44 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>dataWatchInterval:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>データの監視間隔</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>［</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ミリ秒］</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -7267,210 +6201,13 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の提供する標準ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>バッチアプリケーション専用ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>プロセス常駐化ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>データの監視間隔を設定する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -7557,8 +6294,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -7576,7 +6313,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="514350" y="1971675"/>
-          <a:ext cx="7200900" cy="6553200"/>
+          <a:ext cx="7200900" cy="2600325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7768,219 +6505,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の提供する標準ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>スタンドアローン型アプリケーション共通ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>マルチスレッド実行制御ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>スレッド数を指定する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
+            <a:t>スレッド数</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8010,8 +6535,8 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>    </a:t>
           </a:r>
@@ -8020,8 +6545,8 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>・</a:t>
           </a:r>
@@ -8030,233 +6555,26 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>defaultTimeToLive:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の提供する標準ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージング専用ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージングコンテキスト管理ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [MQ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の接続先の設定を行う</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [MessagingProvider] -&gt; [JmsMessagingProvider]</a:t>
-          </a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>送信電文の有効期間のデフォルト値［ミリ秒］</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -8274,10 +6592,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="1200"/>
             </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -8311,271 +6640,28 @@
             <a:t>receiveQueueName:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージング編</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>によるメッセージング</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アーキテクチャ概要</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージングで使用するデータリーダ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>                -&gt; [MessageReader (MQ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>から電文の読み込み</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>)]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リーダが監視する受信キュー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>名</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -8594,10 +6680,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="1200"/>
             </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -8631,272 +6728,66 @@
             <a:t>readTimeout:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>受信キューが空の場合に待機する最大時間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>［ミリ秒］</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="1200"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージング編</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>によるメッセージング</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アーキテクチャ概要</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージングで使用するデータリーダ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>                -&gt; [MessageReader (MQ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>から電文の読み込み</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>)]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                        0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以下の値を設定した場合はタイムアウトせずに 新規電文を受信するまで待機し続ける</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9203,15 +7094,20 @@
             <a:t>sendQueueName:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>送信キュー名</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -9220,268 +7116,15 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>が提供するライブラリ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>システム間メッセージング</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージング</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>同期応答でメッセージを送信する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>同期応答メッセージ送信</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>)]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>                -&gt; [MessageSender</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の設定</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]-&gt;[MessageSenderSettings ]</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -9670,13 +7313,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -9693,8 +7336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="447675" y="2085975"/>
-          <a:ext cx="7200900" cy="6553200"/>
+          <a:off x="447675" y="2085976"/>
+          <a:ext cx="7200900" cy="3028950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9886,220 +7529,15 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の提供する標準ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>スタンドアローン型アプリケーション共通ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>マルチスレッド実行制御ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>スレッド数を指定する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
+            <a:t>スレッド数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -10161,8 +7599,15 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
+            <a:t>送信電文の有効期間のデフォルト値［ミリ秒］</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -10171,45 +7616,60 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>receiveQueueName:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>]</a:t>
+            <a:t>リーダが監視する受信キュー名</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10219,162 +7679,67 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の提供する標準ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージング専用ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージングコンテキスト管理ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [MQ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の接続先の設定を行う</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
+            <a:t>poisonQueueName:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>受信退避キュー（ポイズンキュー）名</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -10392,10 +7757,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="1200"/>
             </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -10426,7 +7802,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>receiveQueueName:</a:t>
+            <a:t>readTimeout:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -10436,7 +7812,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>下記を参照</a:t>
+            <a:t>受信キューが空の場合に待機する最大時間［ミリ秒］</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10454,7 +7830,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        </a:t>
+            <a:t>                  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -10464,7 +7840,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
+            <a:t>0</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -10474,815 +7850,8 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージング編</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>によるメッセージング</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アーキテクチャ概要</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージングで使用するデータリーダ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>                -&gt; [MessageReader (MQ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>から電文の読み込み</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>)]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>poisonQueueName:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の提供する標準ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージング専用ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージングコンテキスト管理ハンドラ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [MQ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>の接続先の設定を行う</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [MessagingProvider] -&gt; [JmsMessagingProvider]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>readTimeou:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>解説書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アプリケーションフレームワーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージング編</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>によるメッセージング</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>アーキテクチャ概要</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [MOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>メッセージングで使用するデータリーダ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>                -&gt; [MessageReader (MQ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>から電文の読み込み</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>)]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
+            <a:t>以下の値を設定した場合はタイムアウトせずに 新規電文を受信するまで待機し続ける</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12871,9 +9440,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B1:P84"/>
+  <dimension ref="B1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13326,7 +9895,7 @@
     <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="71"/>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -13466,7 +10035,7 @@
     <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="71"/>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -13480,7 +10049,7 @@
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="71"/>
       <c r="C51" s="1" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -13494,7 +10063,7 @@
     <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="71"/>
       <c r="C52" s="1" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -13508,7 +10077,7 @@
     <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="71"/>
       <c r="C53" s="1" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -13522,7 +10091,7 @@
     <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="71"/>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -13536,7 +10105,7 @@
     <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="71"/>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -13550,7 +10119,7 @@
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="71"/>
       <c r="C56" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -13564,7 +10133,7 @@
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="71"/>
       <c r="C57" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -13578,7 +10147,7 @@
     <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" s="71"/>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -13592,7 +10161,7 @@
     <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" s="71"/>
       <c r="C59" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -13606,7 +10175,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" s="71"/>
       <c r="C60" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -13619,9 +10188,7 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B61" s="71"/>
-      <c r="C61" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -13633,8 +10200,8 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B62" s="71"/>
-      <c r="C62" s="1" t="s">
-        <v>119</v>
+      <c r="C62" s="75" t="s">
+        <v>114</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -13647,7 +10214,9 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B63" s="71"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -13659,8 +10228,8 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" s="71"/>
-      <c r="C64" s="75" t="s">
-        <v>120</v>
+      <c r="C64" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -13674,7 +10243,7 @@
     <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65" s="71"/>
       <c r="C65" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -13688,7 +10257,7 @@
     <row r="66" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B66" s="71"/>
       <c r="C66" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -13702,7 +10271,7 @@
     <row r="67" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B67" s="71"/>
       <c r="C67" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -13716,7 +10285,7 @@
     <row r="68" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B68" s="71"/>
       <c r="C68" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -13730,7 +10299,7 @@
     <row r="69" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B69" s="71"/>
       <c r="C69" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -13744,7 +10313,7 @@
     <row r="70" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B70" s="71"/>
       <c r="C70" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -13758,7 +10327,7 @@
     <row r="71" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B71" s="71"/>
       <c r="C71" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -13772,7 +10341,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B72" s="71"/>
       <c r="C72" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -13786,7 +10355,7 @@
     <row r="73" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B73" s="71"/>
       <c r="C73" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -13800,7 +10369,7 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74" s="71"/>
       <c r="C74" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -13813,9 +10382,7 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B75" s="71"/>
-      <c r="C75" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -13828,7 +10395,7 @@
     <row r="76" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B76" s="71"/>
       <c r="C76" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -13842,46 +10409,68 @@
     <row r="77" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B77" s="71"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="D77" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="G77" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="H77" s="66" t="s">
+        <v>48</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="73"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B78" s="71"/>
-      <c r="C78" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="C78" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="H78" s="65" t="s">
+        <v>136</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="73"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B79" s="71"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="66" t="s">
+      <c r="C79" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="F79" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G79" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="H79" s="66" t="s">
-        <v>48</v>
+      <c r="F79" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="H79" s="65" t="s">
+        <v>136</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -13890,22 +10479,22 @@
     <row r="80" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B80" s="71"/>
       <c r="C80" s="67" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D80" s="65" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F80" s="65" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G80" s="65" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H80" s="65" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -13916,84 +10505,36 @@
       <c r="C81" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="E81" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="F81" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="G81" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="H81" s="65" t="s">
-        <v>142</v>
+      <c r="D81" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H81" s="68" t="s">
+        <v>137</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="73"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B82" s="71"/>
-      <c r="C82" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="E82" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="F82" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="G82" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="H82" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="73"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B83" s="71"/>
-      <c r="C83" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="D83" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="F83" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="G83" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="H83" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="73"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B84" s="76"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="78"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -14024,7 +10565,7 @@
   <sheetData>
     <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -14043,24 +10584,24 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
@@ -14106,7 +10647,7 @@
   <sheetData>
     <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -14126,27 +10667,27 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -14198,7 +10739,7 @@
   <sheetData>
     <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -14219,33 +10760,33 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -14300,7 +10841,7 @@
   <sheetData>
     <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -14323,45 +10864,45 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D7" s="81">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -14418,7 +10959,7 @@
   <sheetData>
     <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -14441,48 +10982,48 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -14536,7 +11077,7 @@
   <sheetData>
     <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -14559,48 +11100,48 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -14644,7 +11185,8 @@
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="16.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="16.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="2" customWidth="1"/>
@@ -14794,7 +11336,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:L9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14926,7 +11468,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:M9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15068,7 +11610,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:K9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15194,9 +11736,9 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="B1:N9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15211,16 +11753,24 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
+        <v>225</v>
+      </c>
       <c r="B1" s="57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -15247,7 +11797,7 @@
       </c>
       <c r="N5" s="40"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -15278,7 +11828,7 @@
       <c r="M6" s="44"/>
       <c r="N6" s="55"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
@@ -15301,7 +11851,7 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -15316,7 +11866,7 @@
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -15478,7 +12028,7 @@
   <sheetData>
     <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -15501,42 +12051,42 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -15594,7 +12144,7 @@
   <sheetData>
     <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -15614,30 +12164,30 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">

--- a/バッチ開発補助/ジョブ実行シェルスクリプト自動生成設定.xlsx
+++ b/バッチ開発補助/ジョブ実行シェルスクリプト自動生成設定.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seko\git\github\nablarch-development-standards\nablarch-development-standards-tools\バッチ開発補助\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9473F48-1CAA-4AD2-9DB2-E35F8C89DBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27900" windowHeight="12675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記述方法・サンプル" sheetId="7" r:id="rId1"/>
@@ -508,24 +514,6 @@
     <t xml:space="preserve">        次のオプションは全ての処理方式で指定する必要がある。</t>
   </si>
   <si>
-    <t xml:space="preserve">        ・ requestPath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ・ userId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        これらのオプションの説明は、下記参照のこと。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        [プログラミング・単体テストガイド]</t>
-  </si>
-  <si>
-    <t>　　　　  -&gt; [業務アプリケーションの実装方法 (バッチ処理編)] -&gt; [6.3. バッチ共通のアプリケーション構造]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            -&gt; [処理の流れ] -&gt; [コマンドライン引数]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  ・オプション（アプリケーション用）</t>
   </si>
   <si>
@@ -1226,12 +1214,37 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">        ・ requestPath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ・ userId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          実行するアクションとリクエストIDを指定する。書式は「実行するアクションのクラス名/リクエストID」。</t>
+    <rPh sb="33" eb="35">
+      <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ユーザIDを設定する。 この値はセッションコンテキスト変数に user.id という名前で格納される。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ・readTimeout:受信キューが空の場合に待機する最大時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        0以下の値を設定した場合はタイムアウトせずに 新規電文を受信するまで待機し続ける</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2100,6 +2113,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2121,7 +2137,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7185" name="Rectangle 17"/>
+        <xdr:cNvPr id="7185" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000111C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2183,7 +2205,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7186" name="Rectangle 18"/>
+        <xdr:cNvPr id="7186" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000121C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2245,7 +2273,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7958" name="AutoShape 19"/>
+        <xdr:cNvPr id="7958" name="AutoShape 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000161F0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="7186" idx="0"/>
@@ -2294,7 +2328,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7959" name="AutoShape 20"/>
+        <xdr:cNvPr id="7959" name="AutoShape 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000171F0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="7185" idx="0"/>
@@ -2343,7 +2383,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7192" name="Rectangle 24"/>
+        <xdr:cNvPr id="7192" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000181C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2408,7 +2454,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7961" name="AutoShape 25"/>
+        <xdr:cNvPr id="7961" name="AutoShape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000191F0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="7192" idx="0"/>
@@ -2457,7 +2509,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7194" name="Rectangle 26"/>
+        <xdr:cNvPr id="7194" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A1C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2522,7 +2580,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7963" name="AutoShape 27"/>
+        <xdr:cNvPr id="7963" name="AutoShape 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B1F0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="7194" idx="0"/>
@@ -2576,7 +2640,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2767,7 +2837,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2855,7 +2931,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3172,7 +3254,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3260,7 +3348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3559,7 +3653,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3647,7 +3747,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4057,7 +4163,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4145,7 +4257,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4494,7 +4612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4582,7 +4706,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4891,7 +5021,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4974,12 +5110,18 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1038" name="Rectangle 14"/>
+        <xdr:cNvPr id="1038" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4987,7 +5129,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="495300" y="1514475"/>
-          <a:ext cx="7200900" cy="6553200"/>
+          <a:ext cx="7200900" cy="3762375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5218,34 +5360,18 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・business-date-default-segment:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>    ・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>business-date-default-segment:</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -5254,53 +5380,9 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>          -&gt; [NAF共通コンポーネント] -&gt; [日付の管理機能]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [業務日付機能] -&gt; [設定ファイル] -&gt; [nablarch.core.date.BasicBusinessDateProviderの設定]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [defaultSegment]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>業務日付区分</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -5315,97 +5397,7 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・threadCount:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [並行実行スレッド数]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -5428,34 +5420,18 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・commitInterval:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>    ・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>threadCount:</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -5464,7 +5440,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
+            <a:t>スレッド数</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5474,43 +5450,7 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] -&gt; [トランザクションループ制御ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [コミット間隔回数]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -5526,23 +5466,15 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・maxCount:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -5551,34 +5483,18 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>commitInterval:</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -5587,40 +5503,179 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>            -&gt; [汎用のハンドラ] -&gt; [データリードハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [データ読み込み件数上限]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>コミット間隔とする処理件数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>maxCount:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最大の処理件数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>大量データを処理するバッチ処理を数日に分けて処理させる場合などに指定する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設定しない場合は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を指定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -5698,7 +5753,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2061" name="Rectangle 13"/>
+        <xdr:cNvPr id="2061" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5937,23 +5998,15 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・business-date-default-segment:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -5962,34 +6015,18 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>          -&gt; [NAF共通コンポーネント] -&gt; [日付の管理機能]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>business-date-default-segment:</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -5998,25 +6035,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>            -&gt; [業務日付機能] -&gt; [設定ファイル] -&gt; [nablarch.core.date.BasicBusinessDateProviderの設定]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [defaultSegment]</a:t>
+            <a:t>業務日付区分</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6042,23 +6061,15 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・threadCount:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -6067,34 +6078,18 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>threadCount:</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -6103,35 +6098,9 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [並行実行スレッド数]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>スレッド数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -6146,16 +6115,84 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・dataWatchInterval:下記を参照</a:t>
-          </a:r>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>dataWatchInterval:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>データの監視間隔</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>［</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ミリ秒］</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -6164,70 +6201,13 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] [プロセス常駐化ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [データ監視間隔]</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -6314,12 +6294,18 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3081" name="Rectangle 9"/>
+        <xdr:cNvPr id="3081" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000090C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6327,7 +6313,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="514350" y="1971675"/>
-          <a:ext cx="7200900" cy="6553200"/>
+          <a:ext cx="7200900" cy="2600325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6482,23 +6468,15 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・threadCount:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -6507,34 +6485,18 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>threadCount:</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -6543,25 +6505,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [並行実行スレッド数]</a:t>
+            <a:t>スレッド数</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6587,69 +6531,50 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・defaultTimeToLive:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [NAF基盤ライブラリ] -&gt; [システム間メッセージング機能]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [JMS メッセージングプロバイダ] -&gt; [設定項目] -&gt; [デフォルト送信電文有効期間(msec)]</a:t>
-          </a:r>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>defaultTimeToLive:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>送信電文の有効期間のデフォルト値［ミリ秒］</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -6667,30 +6592,33 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="1200"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・receiveQueueName:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -6699,26 +6627,42 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework 解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>          -&gt; [リファレンス] -&gt; [データリーダリファレンス]</a:t>
-          </a:r>
+            <a:t>receiveQueueName:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リーダが監視する受信キュー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>名</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -6727,25 +6671,7 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [受信電文リーダ] -&gt; [設定項目一覧] -&gt; [受信キュー論理名]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -6754,30 +6680,33 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="1200"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・readTimeout:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -6786,59 +6715,79 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework 解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>          -&gt; [リファレンス] -&gt; [データリーダリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [受信電文リーダ] -&gt; [設定項目一覧] -&gt; [受信待機タイムアウト時間(ミリ秒)]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
+            <a:t>readTimeout:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>受信キューが空の場合に待機する最大時間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>［ミリ秒］</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                        0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以下の値を設定した場合はタイムアウトせずに 新規電文を受信するまで待機し続ける</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6859,7 +6808,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3083" name="Rectangle 11"/>
+        <xdr:cNvPr id="3083" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B0C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6947,7 +6902,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4107" name="Rectangle 11"/>
+        <xdr:cNvPr id="4107" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7103,23 +7064,15 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・sendQueueName:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -7128,26 +7081,33 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>            -&gt; [業務アクションハンドラ] -&gt; [応答不要電文送信処理用アクションハンドラ]</a:t>
-          </a:r>
+            <a:t>sendQueueName:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>送信キュー名</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -7156,16 +7116,30 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [送信宛先キュー論理名]</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -7255,7 +7229,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4109" name="Rectangle 13"/>
+        <xdr:cNvPr id="4109" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7333,25 +7313,31 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5129" name="Rectangle 9"/>
+        <xdr:cNvPr id="5129" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="447675" y="2085975"/>
-          <a:ext cx="7200900" cy="6553200"/>
+          <a:off x="447675" y="2085976"/>
+          <a:ext cx="7200900" cy="3028950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7506,23 +7492,15 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・threadCount:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -7531,34 +7509,18 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>　　　　  -&gt; [リファレンス] -&gt; [ハンドラリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>threadCount:</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -7567,26 +7529,15 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>            -&gt; [バッチ処理用ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [設定項目・拡張ポイント]　-&gt; [並行実行スレッド数]</a:t>
-          </a:r>
+            <a:t>スレッド数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -7611,23 +7562,15 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・defaultTimeToLive:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -7636,34 +7579,18 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>          -&gt; [NAF基盤ライブラリ] -&gt; [システム間メッセージング機能]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>defaultTimeToLive:</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -7672,8 +7599,147 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>            -&gt; [JMS メッセージングプロバイダ] -&gt; [設定項目] -&gt; [デフォルト送信電文有効期間(msec)]</a:t>
-          </a:r>
+            <a:t>送信電文の有効期間のデフォルト値［ミリ秒］</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>receiveQueueName:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>リーダが監視する受信キュー名</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>poisonQueueName:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>受信退避キュー（ポイズンキュー）名</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -7691,30 +7757,33 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="1200"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・receiveQueueName:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -7723,34 +7792,18 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework 解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>          -&gt; [リファレンス] -&gt; [データリーダリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>readTimeout:</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -7759,23 +7812,8 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>            -&gt; [受信電文リーダ] -&gt; [設定項目一覧] -&gt; [受信キュー論理名]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
+            <a:t>受信キューが空の場合に待機する最大時間［ミリ秒］</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -7792,34 +7830,18 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    ・poisonQueueName:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>        [Nablarch Application Framework解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>0</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -7828,128 +7850,8 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>          -&gt; [NAF基盤ライブラリ] -&gt; [システム間メッセージング機能]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [JMS メッセージングプロバイダ] -&gt; [設定項目] -&gt; [デフォルト退避キュー名]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    ・readTimeout:下記を参照</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework 解説書]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [リファレンス] -&gt; [データリーダリファレンス]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [受信電文リーダ] -&gt; [設定項目一覧] -&gt; [受信待機タイムアウト時間(ミリ秒)]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
+            <a:t>以下の値を設定した場合はタイムアウトせずに 新規電文を受信するまで待機し続ける</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7970,7 +7872,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5131" name="Rectangle 11"/>
+        <xdr:cNvPr id="5131" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8058,7 +7966,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6153" name="Rectangle 9"/>
+        <xdr:cNvPr id="6153" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009180000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8189,7 +8103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6155" name="Rectangle 11"/>
+        <xdr:cNvPr id="6155" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B180000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8277,7 +8197,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8756,7 +8682,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8844,7 +8776,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 9"/>
+        <xdr:cNvPr id="2" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9103,7 +9041,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 11"/>
+        <xdr:cNvPr id="3" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9175,7 +9119,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9217,7 +9161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9250,9 +9194,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9285,6 +9246,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9460,13 +9438,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B1:P84"/>
+  <dimension ref="B1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
@@ -9483,21 +9461,21 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:16" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="11.25" thickBot="1">
+    <row r="4" spans="2:16" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="12" thickTop="1" thickBot="1">
+    <row r="5" spans="2:16" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -9526,7 +9504,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="39"/>
     </row>
-    <row r="6" spans="2:16" ht="12" thickTop="1" thickBot="1">
+    <row r="6" spans="2:16" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -9561,7 +9539,7 @@
       <c r="O6" s="50"/>
       <c r="P6" s="51"/>
     </row>
-    <row r="7" spans="2:16" ht="32.25" thickTop="1">
+    <row r="7" spans="2:16" ht="32.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>56</v>
       </c>
@@ -9606,7 +9584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="11.25" thickBot="1">
+    <row r="8" spans="2:16" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
@@ -9637,12 +9615,12 @@
       <c r="O8" s="31"/>
       <c r="P8" s="32"/>
     </row>
-    <row r="9" spans="2:16" s="1" customFormat="1" ht="11.25" thickTop="1">
+    <row r="9" spans="2:16" s="1" customFormat="1" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="69"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -9654,7 +9632,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="70"/>
     </row>
-    <row r="21" spans="2:11" ht="17.25">
+    <row r="21" spans="2:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B21" s="71"/>
       <c r="C21" s="72" t="s">
         <v>82</v>
@@ -9668,7 +9646,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="73"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="71"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -9680,7 +9658,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="73"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="71"/>
       <c r="C23" s="74" t="s">
         <v>83</v>
@@ -9694,7 +9672,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="73"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="71"/>
       <c r="C24" s="74" t="s">
         <v>84</v>
@@ -9708,7 +9686,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="73"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="71"/>
       <c r="C25" s="74" t="s">
         <v>85</v>
@@ -9722,7 +9700,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="73"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="71"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -9734,7 +9712,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="73"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="71"/>
       <c r="C27" s="75" t="s">
         <v>86</v>
@@ -9748,7 +9726,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="73"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="71"/>
       <c r="C28" s="1" t="s">
         <v>87</v>
@@ -9762,7 +9740,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="73"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="71"/>
       <c r="C29" s="1" t="s">
         <v>88</v>
@@ -9776,7 +9754,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="73"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="71"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -9788,7 +9766,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="73"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="71"/>
       <c r="C31" s="75" t="s">
         <v>89</v>
@@ -9802,7 +9780,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="73"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="71"/>
       <c r="C32" s="1" t="s">
         <v>90</v>
@@ -9816,7 +9794,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="73"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="71"/>
       <c r="C33" s="1" t="s">
         <v>91</v>
@@ -9830,7 +9808,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="73"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="71"/>
       <c r="C34" s="1" t="s">
         <v>92</v>
@@ -9844,7 +9822,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="73"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="71"/>
       <c r="C35" s="1" t="s">
         <v>93</v>
@@ -9858,7 +9836,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="73"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="71"/>
       <c r="C36" s="1" t="s">
         <v>94</v>
@@ -9872,7 +9850,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="73"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B37" s="71"/>
       <c r="C37" s="1" t="s">
         <v>95</v>
@@ -9886,7 +9864,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="73"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" s="71"/>
       <c r="C38" s="1" t="s">
         <v>96</v>
@@ -9900,7 +9878,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="73"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="71"/>
       <c r="C39" s="1" t="s">
         <v>97</v>
@@ -9914,10 +9892,10 @@
       <c r="J39" s="1"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="71"/>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -9928,7 +9906,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" s="71"/>
       <c r="C41" s="1" t="s">
         <v>98</v>
@@ -9942,7 +9920,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" s="71"/>
       <c r="C42" s="1" t="s">
         <v>99</v>
@@ -9956,7 +9934,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="73"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" s="71"/>
       <c r="C43" s="1" t="s">
         <v>100</v>
@@ -9970,7 +9948,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="73"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" s="71"/>
       <c r="C44" s="1" t="s">
         <v>101</v>
@@ -9984,7 +9962,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="71"/>
       <c r="C45" s="1" t="s">
         <v>102</v>
@@ -9998,7 +9976,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="73"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" s="71"/>
       <c r="C46" s="1" t="s">
         <v>103</v>
@@ -10012,7 +9990,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="73"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" s="71"/>
       <c r="C47" s="1" t="s">
         <v>104</v>
@@ -10026,7 +10004,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="73"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" s="71"/>
       <c r="C48" s="1" t="s">
         <v>105</v>
@@ -10040,7 +10018,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="73"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="71"/>
       <c r="C49" s="1" t="s">
         <v>106</v>
@@ -10054,10 +10032,10 @@
       <c r="J49" s="1"/>
       <c r="K49" s="73"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="71"/>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -10068,10 +10046,10 @@
       <c r="J50" s="1"/>
       <c r="K50" s="73"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="71"/>
       <c r="C51" s="1" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -10082,10 +10060,10 @@
       <c r="J51" s="1"/>
       <c r="K51" s="73"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="71"/>
       <c r="C52" s="1" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -10096,10 +10074,10 @@
       <c r="J52" s="1"/>
       <c r="K52" s="73"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="71"/>
       <c r="C53" s="1" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -10110,10 +10088,10 @@
       <c r="J53" s="1"/>
       <c r="K53" s="73"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="71"/>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -10124,10 +10102,10 @@
       <c r="J54" s="1"/>
       <c r="K54" s="73"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="71"/>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -10138,10 +10116,10 @@
       <c r="J55" s="1"/>
       <c r="K55" s="73"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="71"/>
       <c r="C56" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -10152,10 +10130,10 @@
       <c r="J56" s="1"/>
       <c r="K56" s="73"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="71"/>
       <c r="C57" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -10166,10 +10144,10 @@
       <c r="J57" s="1"/>
       <c r="K57" s="73"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" s="71"/>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -10180,10 +10158,10 @@
       <c r="J58" s="1"/>
       <c r="K58" s="73"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" s="71"/>
       <c r="C59" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -10194,10 +10172,10 @@
       <c r="J59" s="1"/>
       <c r="K59" s="73"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" s="71"/>
       <c r="C60" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -10208,11 +10186,9 @@
       <c r="J60" s="1"/>
       <c r="K60" s="73"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B61" s="71"/>
-      <c r="C61" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -10222,10 +10198,10 @@
       <c r="J61" s="1"/>
       <c r="K61" s="73"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B62" s="71"/>
-      <c r="C62" s="1" t="s">
-        <v>119</v>
+      <c r="C62" s="75" t="s">
+        <v>114</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -10236,9 +10212,11 @@
       <c r="J62" s="1"/>
       <c r="K62" s="73"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B63" s="71"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -10248,10 +10226,10 @@
       <c r="J63" s="1"/>
       <c r="K63" s="73"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" s="71"/>
-      <c r="C64" s="75" t="s">
-        <v>120</v>
+      <c r="C64" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -10262,10 +10240,10 @@
       <c r="J64" s="1"/>
       <c r="K64" s="73"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65" s="71"/>
       <c r="C65" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -10276,10 +10254,10 @@
       <c r="J65" s="1"/>
       <c r="K65" s="73"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B66" s="71"/>
       <c r="C66" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -10290,10 +10268,10 @@
       <c r="J66" s="1"/>
       <c r="K66" s="73"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B67" s="71"/>
       <c r="C67" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -10304,10 +10282,10 @@
       <c r="J67" s="1"/>
       <c r="K67" s="73"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B68" s="71"/>
       <c r="C68" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -10318,10 +10296,10 @@
       <c r="J68" s="1"/>
       <c r="K68" s="73"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B69" s="71"/>
       <c r="C69" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -10332,10 +10310,10 @@
       <c r="J69" s="1"/>
       <c r="K69" s="73"/>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B70" s="71"/>
       <c r="C70" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -10346,10 +10324,10 @@
       <c r="J70" s="1"/>
       <c r="K70" s="73"/>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B71" s="71"/>
       <c r="C71" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -10360,10 +10338,10 @@
       <c r="J71" s="1"/>
       <c r="K71" s="73"/>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B72" s="71"/>
       <c r="C72" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -10374,10 +10352,10 @@
       <c r="J72" s="1"/>
       <c r="K72" s="73"/>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B73" s="71"/>
       <c r="C73" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -10388,10 +10366,10 @@
       <c r="J73" s="1"/>
       <c r="K73" s="73"/>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74" s="71"/>
       <c r="C74" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -10402,11 +10380,9 @@
       <c r="J74" s="1"/>
       <c r="K74" s="73"/>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B75" s="71"/>
-      <c r="C75" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -10416,10 +10392,10 @@
       <c r="J75" s="1"/>
       <c r="K75" s="73"/>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B76" s="71"/>
       <c r="C76" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -10430,161 +10406,135 @@
       <c r="J76" s="1"/>
       <c r="K76" s="73"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B77" s="71"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="D77" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="G77" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="H77" s="66" t="s">
+        <v>48</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="73"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B78" s="71"/>
-      <c r="C78" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="C78" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="H78" s="65" t="s">
+        <v>136</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="73"/>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B79" s="71"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="66" t="s">
+      <c r="C79" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="F79" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G79" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="H79" s="66" t="s">
-        <v>48</v>
+      <c r="F79" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="H79" s="65" t="s">
+        <v>136</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="73"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B80" s="71"/>
       <c r="C80" s="67" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D80" s="65" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F80" s="65" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G80" s="65" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H80" s="65" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="73"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B81" s="71"/>
       <c r="C81" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="E81" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="F81" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="G81" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="H81" s="65" t="s">
-        <v>142</v>
+      <c r="D81" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H81" s="68" t="s">
+        <v>137</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="73"/>
     </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="71"/>
-      <c r="C82" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="E82" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="F82" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="G82" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="H82" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="73"/>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="B83" s="71"/>
-      <c r="C83" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="D83" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="F83" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="G83" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="H83" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="73"/>
-    </row>
-    <row r="84" spans="2:11">
-      <c r="B84" s="76"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="78"/>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B82" s="76"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10596,13 +10546,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -10613,12 +10563,12 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -10630,37 +10580,37 @@
       </c>
       <c r="E5" s="60"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1">
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -10678,13 +10628,13 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -10695,12 +10645,12 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -10713,44 +10663,44 @@
       <c r="E5" s="53"/>
       <c r="F5" s="60"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1">
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -10768,13 +10718,13 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -10787,12 +10737,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -10806,43 +10756,43 @@
       <c r="F5" s="53"/>
       <c r="G5" s="60"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
@@ -10850,7 +10800,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -10870,13 +10820,13 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -10889,12 +10839,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -10910,55 +10860,55 @@
       <c r="H5" s="53"/>
       <c r="I5" s="60"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D7" s="81">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
@@ -10968,7 +10918,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -10988,13 +10938,13 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -11007,12 +10957,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -11028,55 +10978,55 @@
       <c r="H5" s="53"/>
       <c r="I5" s="60"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="54" t="s">
+      <c r="G7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="I7" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H6" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
@@ -11086,7 +11036,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11106,13 +11056,13 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -11125,12 +11075,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -11146,55 +11096,55 @@
       <c r="H5" s="53"/>
       <c r="I5" s="60"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E6" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="54" t="s">
+      <c r="H7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H6" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
@@ -11204,7 +11154,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11224,18 +11174,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:M9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="16.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="16.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="2" customWidth="1"/>
@@ -11244,16 +11195,16 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:13" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="25"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11279,7 +11230,7 @@
       </c>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11307,7 +11258,7 @@
       <c r="L6" s="44"/>
       <c r="M6" s="55"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>55</v>
       </c>
@@ -11345,7 +11296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -11359,7 +11310,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11381,13 +11332,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:L9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -11399,16 +11350,16 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:12" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11433,7 +11384,7 @@
       </c>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11458,7 +11409,7 @@
       <c r="K6" s="44"/>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>57</v>
       </c>
@@ -11479,7 +11430,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -11492,7 +11443,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1">
+    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11513,13 +11464,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:M9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -11534,16 +11485,16 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:13" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11569,7 +11520,7 @@
       </c>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11597,7 +11548,7 @@
       <c r="L6" s="44"/>
       <c r="M6" s="55"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
@@ -11619,7 +11570,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -11633,7 +11584,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11655,13 +11606,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:K9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -11675,15 +11626,15 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:11" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11707,7 +11658,7 @@
       </c>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11729,7 +11680,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
@@ -11751,7 +11702,7 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -11763,7 +11714,7 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="2:11" s="1" customFormat="1">
+    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11783,13 +11734,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="B1:N9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -11802,16 +11753,24 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="1:14" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
+        <v>225</v>
+      </c>
       <c r="B1" s="57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11838,7 +11797,7 @@
       </c>
       <c r="N5" s="40"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11869,7 +11828,7 @@
       <c r="M6" s="44"/>
       <c r="N6" s="55"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
@@ -11892,7 +11851,7 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -11907,7 +11866,7 @@
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="2:14" s="1" customFormat="1">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11933,13 +11892,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -11951,12 +11910,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
@@ -11979,7 +11938,7 @@
       </c>
       <c r="J5" s="40"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -11996,7 +11955,7 @@
       <c r="I6" s="44"/>
       <c r="J6" s="55"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
@@ -12015,7 +11974,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -12026,7 +11985,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -12048,13 +12007,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -12067,12 +12026,12 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -12088,46 +12047,46 @@
       <c r="H5" s="53"/>
       <c r="I5" s="60"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -12136,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
@@ -12146,7 +12105,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -12166,13 +12125,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -12183,12 +12142,12 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25">
+    <row r="1" spans="2:7" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
@@ -12201,44 +12160,44 @@
       <c r="E5" s="53"/>
       <c r="F5" s="60"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="79" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1">
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
